--- a/src/configurations/form.xlsx
+++ b/src/configurations/form.xlsx
@@ -4,22 +4,195 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6672"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="header" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="transformations" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>form_field</t>
   </si>
   <si>
-    <t>db_field</t>
+    <t>aeps_production_event-technical_assistant-ta_organization</t>
+  </si>
+  <si>
+    <t>ext_id</t>
+  </si>
+  <si>
+    <t>soc_associations</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_document_kind</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_document_number</t>
+  </si>
+  <si>
+    <t>kind_document</t>
+  </si>
+  <si>
+    <t>soc_people</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_last_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_cellphone</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_gender</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_country</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_adm1</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_adm2</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_address</t>
+  </si>
+  <si>
+    <t>aeps_production_event-technical_assistant-ta_group-ta_email</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>cellphone</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>con_states</t>
+  </si>
+  <si>
+    <t>con_municipalities</t>
+  </si>
+  <si>
+    <t>con_countries</t>
+  </si>
+  <si>
+    <t>form_sheet</t>
+  </si>
+  <si>
+    <t>Hoja 1</t>
+  </si>
+  <si>
+    <t>form_key</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>municipality</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>soc_technical_assistants</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_last_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_cellphone</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_sex</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_country</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_adm1</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_adm2</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_address</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_group-fa_email</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_document_kind</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farmer-fa_document_number</t>
+  </si>
+  <si>
+    <t>process</t>
   </si>
 </sst>
 </file>
@@ -389,24 +562,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/configurations/form.xlsx
+++ b/src/configurations/form.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6672"/>
   </bookViews>
   <sheets>
-    <sheet name="header" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="transformations" sheetId="2" r:id="rId3"/>
+    <sheet name="form" sheetId="1" r:id="rId1"/>
+    <sheet name="transformations" sheetId="2" r:id="rId2"/>
+    <sheet name="validations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
   <si>
     <t>form_field</t>
   </si>
@@ -192,7 +192,256 @@
     <t>aeps_production_event-farmer-fa_document_number</t>
   </si>
   <si>
-    <t>process</t>
+    <t>far_farms</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_location</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_location-altitude</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_location-accuracy</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_direction</t>
+  </si>
+  <si>
+    <t>aeps_production_event-farm-fr_ownership</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot</t>
+  </si>
+  <si>
+    <t>aeps_production_event-meta-instanceID</t>
+  </si>
+  <si>
+    <t>aeps_production_event-meta-instanceName</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>location_comments</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>condition_value</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>reg_exp</t>
+  </si>
+  <si>
+    <t>condition_field</t>
+  </si>
+  <si>
+    <t>[0-9a-zA-z]{5}[0-9a-zA-z]*</t>
+  </si>
+  <si>
+    <t>far_plots</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-pl_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-pl_location</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-pl_location-altitude</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-pl_location-accuracy</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_former_crop</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_former_crop_other</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_current_crop</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_cultivar</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_cultivar_other</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_seed_certified</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_seed_amount</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_rows_distance</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-production_event-pe_places_distance</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_sowing_technique</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_sowing_date</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_transplant_hits</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_transplant_date</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_planted_area</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_emerging_date</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_flowering_date</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-phenological_cycle-pc_reseeding</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-ap_crop_residue</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-ap_land_preparation</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-ap_fertilization</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-ap_monitoring</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-ap_plant_healt_management</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_date</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_humidity_grain</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_days</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_days_note</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_method</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_area</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_crop_production_unit</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_total_crop_production</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_yield_unit</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_total_yield</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_harvested_products</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_crop_lodging</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_cl_percentage</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-harvest-h_cl_moments</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-irrigation-i_done</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-irrigation-i_kind</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-irrigation-i_amount_irrigations</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-irrigation-i_amount_water_total</t>
+  </si>
+  <si>
+    <t>PARENT_KEY</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>far_production_events</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>soc_people_2</t>
+  </si>
+  <si>
+    <t>soc_people_1</t>
+  </si>
+  <si>
+    <t>con_countries_1</t>
+  </si>
+  <si>
+    <t>con_countries_2</t>
+  </si>
+  <si>
+    <t>con_states_1</t>
+  </si>
+  <si>
+    <t>con_states_2</t>
+  </si>
+  <si>
+    <t>con_municipalities_1</t>
+  </si>
+  <si>
+    <t>con_municipalities_2</t>
   </si>
 </sst>
 </file>
@@ -228,8 +477,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,542 +812,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="P33" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
+      <c r="N34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>2</v>
+      </c>
+      <c r="P80" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1107,34 +1898,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1145,44 +2045,366 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/configurations/form.xlsx
+++ b/src/configurations/form.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
-    <sheet name="transformations" sheetId="2" r:id="rId2"/>
-    <sheet name="validations" sheetId="3" r:id="rId3"/>
+    <sheet name="survey" sheetId="7" r:id="rId2"/>
+    <sheet name="transformations" sheetId="2" r:id="rId3"/>
+    <sheet name="validations" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
   <si>
     <t>form_field</t>
   </si>
@@ -156,9 +157,6 @@
     <t>person</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
     <t>aeps_production_event-farmer-fa_group-fa_name</t>
   </si>
   <si>
@@ -442,6 +440,579 @@
   </si>
   <si>
     <t>con_municipalities_2</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>pe_former_crop</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>pe_former_crop_other</t>
+  </si>
+  <si>
+    <t>pe_current_crop</t>
+  </si>
+  <si>
+    <t>pe_cultivar</t>
+  </si>
+  <si>
+    <t>pe_cultivar_other</t>
+  </si>
+  <si>
+    <t>pe_seed_certified</t>
+  </si>
+  <si>
+    <t>pe_seed_amount</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>pe_rows_distance</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>pe_places_distance</t>
+  </si>
+  <si>
+    <t>pc_sowing_technique</t>
+  </si>
+  <si>
+    <t>pc_sowing_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>pc_transplant_hits</t>
+  </si>
+  <si>
+    <t>pc_transplant_date</t>
+  </si>
+  <si>
+    <t>pc_planted_area</t>
+  </si>
+  <si>
+    <t>pc_emerging_date</t>
+  </si>
+  <si>
+    <t>pc_flowering_date</t>
+  </si>
+  <si>
+    <t>pc_reseeding</t>
+  </si>
+  <si>
+    <t>ap_cr_type</t>
+  </si>
+  <si>
+    <t>ap_cr_date</t>
+  </si>
+  <si>
+    <t>ap_cr_notes</t>
+  </si>
+  <si>
+    <t>ap_lp_type</t>
+  </si>
+  <si>
+    <t>ap_lp_date</t>
+  </si>
+  <si>
+    <t>ap_lp_notes</t>
+  </si>
+  <si>
+    <t>ap_f_type</t>
+  </si>
+  <si>
+    <t>ap_f_date</t>
+  </si>
+  <si>
+    <t>ap_f_cf_source</t>
+  </si>
+  <si>
+    <t>ap_f_cf_amount_product</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_n</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_p</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_k</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_ca</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_mg</t>
+  </si>
+  <si>
+    <t>ap_f_cf_fo_s</t>
+  </si>
+  <si>
+    <t>ap_f_of_type</t>
+  </si>
+  <si>
+    <t>ap_f_notes</t>
+  </si>
+  <si>
+    <t>ap_m_type</t>
+  </si>
+  <si>
+    <t>ap_m_date</t>
+  </si>
+  <si>
+    <t>ap_m_crop_growth_stage_weed</t>
+  </si>
+  <si>
+    <t>ap_m_pest_found</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>ap_m_diseases</t>
+  </si>
+  <si>
+    <t>ap_m_notes</t>
+  </si>
+  <si>
+    <t>ap_phm_type</t>
+  </si>
+  <si>
+    <t>ap_phm_date</t>
+  </si>
+  <si>
+    <t>ap_phm_was</t>
+  </si>
+  <si>
+    <t>ap_phm_p_found</t>
+  </si>
+  <si>
+    <t>ap_phm_p_product_used</t>
+  </si>
+  <si>
+    <t>ap_phm_d_found</t>
+  </si>
+  <si>
+    <t>ap_phm_w_type</t>
+  </si>
+  <si>
+    <t>ap_phm_w_herbicide_used</t>
+  </si>
+  <si>
+    <t>ap_phm_w_red_rice</t>
+  </si>
+  <si>
+    <t>ap_phm_notes</t>
+  </si>
+  <si>
+    <t>h_date</t>
+  </si>
+  <si>
+    <t>h_humidity_grain</t>
+  </si>
+  <si>
+    <t>h_days</t>
+  </si>
+  <si>
+    <t>h_days_note</t>
+  </si>
+  <si>
+    <t>h_method</t>
+  </si>
+  <si>
+    <t>h_area</t>
+  </si>
+  <si>
+    <t>h_crop_production_unit</t>
+  </si>
+  <si>
+    <t>h_total_crop_production</t>
+  </si>
+  <si>
+    <t>h_yield_unit</t>
+  </si>
+  <si>
+    <t>h_total_yield</t>
+  </si>
+  <si>
+    <t>h_harvested_products</t>
+  </si>
+  <si>
+    <t>h_crop_lodging</t>
+  </si>
+  <si>
+    <t>h_cl_percentage</t>
+  </si>
+  <si>
+    <t>h_cl_moments</t>
+  </si>
+  <si>
+    <t>i_done</t>
+  </si>
+  <si>
+    <t>i_kind</t>
+  </si>
+  <si>
+    <t>i_amount_irrigations</t>
+  </si>
+  <si>
+    <t>i_amount_water_total</t>
+  </si>
+  <si>
+    <t>production_event</t>
+  </si>
+  <si>
+    <t>phenological_cycle</t>
+  </si>
+  <si>
+    <t>ap_crop_residue</t>
+  </si>
+  <si>
+    <t>ap_land_preparation</t>
+  </si>
+  <si>
+    <t>ap_fertilization</t>
+  </si>
+  <si>
+    <t>ap_monitoring</t>
+  </si>
+  <si>
+    <t>ap_plant_healt_management</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>irrigation</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>soc_associations: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>con_countries: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>con_states: country - Field is mandatory</t>
+  </si>
+  <si>
+    <t>con_states: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>con_municipalities: state - Field is mandatory</t>
+  </si>
+  <si>
+    <t>con_municipalities: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: kind_document - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: document - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: name - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: last_name - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: cellphone - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: sex - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: municipality - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_people: address - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_technical_assistants: association - Field is mandatory</t>
+  </si>
+  <si>
+    <t>soc_technical_assistants: person - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: farmer - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: name - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: latitude - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: longitude - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: ext_id - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: farm - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: name - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: latitude - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: longitude - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_plots: altitude - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_seed_certified - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_seed_amount - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_rows_distance - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_places_distance - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_former_crop_other - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_former_crop - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_current_crop - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_cultivar_other - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pe_cultivar - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_transplant_hits - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_transplant_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_sowing_technique - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_sowing_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_reseeding - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_planted_area - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_flowering_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: pc_emerging_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: i_kind - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: i_done - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: i_amount_irrigations - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_yield_unit - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_total_yield - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_total_crop_production - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_method - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_humidity_grain - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_harvested_products - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_crop_production_unit - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_crop_lodging - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_cl_percentage - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_cl_moments - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: h_area - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_was - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_w_type - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_w_red_rice - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_w_herbicide_used - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_type - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_p_product_used - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_p_found - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_phm_d_found - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_m_pest_found - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_m_diseases - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_m_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_m_crop_growth_stage_weed - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_lp_type - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_lp_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_of_type - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_source - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_s - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_p - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_n - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_mg - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_k - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_fo_ca - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_f_cf_amount_product - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_cr_type - Field is mandatory</t>
+  </si>
+  <si>
+    <t>survey: ap_cr_date - Field is mandatory</t>
+  </si>
+  <si>
+    <t>far_farms: farmer - Invalid field (regular expression)</t>
+  </si>
+  <si>
+    <t>soc_people: document - Invalid field (regular expression)</t>
+  </si>
+  <si>
+    <t>soc_technical_assistants: person - Invalid field (regular expression)</t>
+  </si>
+  <si>
+    <t>kg_ha</t>
+  </si>
+  <si>
+    <t>ton_ha</t>
+  </si>
+  <si>
+    <t>fanegas</t>
+  </si>
+  <si>
+    <t>sacos</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>qui</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>units</t>
   </si>
 </sst>
 </file>
@@ -477,9 +1048,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,24 +1389,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -848,40 +1422,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>140</v>
       </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
       <c r="K1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
         <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -932,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1075,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1089,7 +1663,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1098,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1106,7 +1680,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1115,12 +1689,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1129,12 +1703,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1143,12 +1717,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1157,12 +1731,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1174,12 +1748,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1191,12 +1765,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1208,12 +1782,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1222,12 +1796,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1236,12 +1810,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1250,87 +1824,93 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -1338,10 +1918,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>2</v>
@@ -1355,24 +1935,21 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1383,38 +1960,38 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1422,10 +1999,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1433,10 +2010,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1444,10 +2021,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1455,10 +2032,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1466,10 +2043,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1477,10 +2054,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1488,10 +2065,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1499,10 +2076,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1510,10 +2087,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1521,10 +2098,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1532,10 +2109,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1543,10 +2120,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1554,10 +2131,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1565,10 +2142,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1576,10 +2153,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1587,10 +2164,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1598,10 +2175,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1609,10 +2186,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1620,10 +2197,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1631,10 +2208,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1642,10 +2219,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1653,10 +2230,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1664,10 +2241,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1675,10 +2252,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1686,10 +2263,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1697,10 +2274,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1708,10 +2285,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1719,10 +2296,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1730,10 +2307,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1741,10 +2318,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1752,10 +2329,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1763,10 +2340,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1774,10 +2351,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1785,10 +2362,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1796,10 +2373,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1807,10 +2384,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1818,10 +2395,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1829,10 +2406,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1840,10 +2417,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1851,10 +2428,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1862,24 +2439,21 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79">
         <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1888,128 +2462,1369 @@
         <v>2</v>
       </c>
       <c r="P80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="68.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="A2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>722</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+      <c r="A3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>723</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
+      <c r="A4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>724</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
+      <c r="A5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>725</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>726</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>727</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>728</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>729</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>730</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>731</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>732</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>733</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>734</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>735</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>736</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>737</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>738</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2">
         <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>739</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>740</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>741</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>742</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>743</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>744</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>745</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>746</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>747</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>748</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>749</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>750</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>751</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>752</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>753</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>754</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>755</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>756</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>757</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>758</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>759</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>760</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>761</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>762</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>763</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>764</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>765</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>766</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>767</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>768</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>769</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>770</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>771</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>772</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>773</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>774</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>775</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>776</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>777</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>778</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>779</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>780</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>781</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>782</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>783</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>784</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>785</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>786</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>787</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>788</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>789</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>790</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2019,19 +3834,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2045,369 +3860,1597 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>130</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>330</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>232</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>330</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>232</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+        <v>232</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>232</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="3">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+        <v>232</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="3">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
+        <v>232</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
+        <v>232</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
+        <v>232</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
+        <v>329</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H55" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H74" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H81" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H89" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/configurations/form.xlsx
+++ b/src/configurations/form.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="331">
   <si>
     <t>form_field</t>
   </si>
@@ -256,27 +256,12 @@
     <t>condition_field</t>
   </si>
   <si>
-    <t>[0-9a-zA-z]{5}[0-9a-zA-z]*</t>
-  </si>
-  <si>
     <t>far_plots</t>
   </si>
   <si>
     <t>farm</t>
   </si>
   <si>
-    <t>aeps_production_event-plot-pl_name</t>
-  </si>
-  <si>
-    <t>aeps_production_event-plot-pl_location</t>
-  </si>
-  <si>
-    <t>aeps_production_event-plot-pl_location-altitude</t>
-  </si>
-  <si>
-    <t>aeps_production_event-plot-pl_location-accuracy</t>
-  </si>
-  <si>
     <t>aeps_production_event-plot-production_event-pe_former_crop</t>
   </si>
   <si>
@@ -622,9 +607,6 @@
     <t>h_days</t>
   </si>
   <si>
-    <t>h_days_note</t>
-  </si>
-  <si>
     <t>h_method</t>
   </si>
   <si>
@@ -1013,6 +995,21 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-plot_general-pl_name</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-plot_general-pl_location</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-plot_general-pl_location-altitude</t>
+  </si>
+  <si>
+    <t>aeps_production_event-plot-plot_general-pl_location-accuracy</t>
+  </si>
+  <si>
+    <t>[0-9a-zA-Z]+</t>
   </si>
 </sst>
 </file>
@@ -1028,12 +1025,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1048,13 +1051,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,7 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1422,28 +1428,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
         <v>43</v>
@@ -1452,10 +1458,10 @@
         <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1665,14 +1671,11 @@
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1910,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -1926,6 +1929,9 @@
       <c r="L33" t="s">
         <v>2</v>
       </c>
+      <c r="N33" t="s">
+        <v>68</v>
+      </c>
       <c r="P33" t="s">
         <v>2</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1963,7 +1969,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1977,13 +1983,13 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -1991,7 +1997,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2002,7 +2008,7 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2013,7 +2019,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2024,7 +2030,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2035,7 +2041,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2046,7 +2052,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2057,7 +2063,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2068,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2079,7 +2085,7 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2090,7 +2096,7 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2101,7 +2107,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2112,7 +2118,7 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2123,7 +2129,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2134,7 +2140,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2145,7 +2151,7 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2156,7 +2162,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2167,7 +2173,7 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2189,7 +2195,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2200,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2211,7 +2217,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2222,7 +2228,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2233,7 +2239,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2244,7 +2250,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2255,7 +2261,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2266,7 +2272,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2277,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2288,7 +2294,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2299,7 +2305,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2310,7 +2316,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2332,7 +2338,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2343,7 +2349,7 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2354,7 +2360,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2365,7 +2371,7 @@
         <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2376,7 +2382,7 @@
         <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2387,7 +2393,7 @@
         <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2398,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2409,7 +2415,7 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2420,7 +2426,7 @@
         <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2431,7 +2437,7 @@
         <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2442,7 +2448,7 @@
         <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2462,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="P80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2473,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,16 +2496,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -2507,104 +2513,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2612,1083 +2618,1087 @@
         <v>216</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>731</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>732</v>
+        <v>227</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>733</v>
+        <v>228</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>734</v>
+        <v>229</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>735</v>
+        <v>230</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>736</v>
+        <v>231</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>737</v>
+        <v>232</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>738</v>
+        <v>233</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>739</v>
+        <v>234</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>740</v>
+        <v>235</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>741</v>
+        <v>236</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>742</v>
+        <v>237</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>743</v>
+        <v>238</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>744</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>745</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>746</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>747</v>
+        <v>242</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>748</v>
+        <v>243</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>749</v>
+        <v>244</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>750</v>
+        <v>245</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>751</v>
+        <v>246</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>752</v>
+        <v>247</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>753</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>754</v>
+        <v>249</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>755</v>
+        <v>250</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>756</v>
+        <v>251</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>757</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>758</v>
+        <v>253</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>759</v>
+        <v>254</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>760</v>
+        <v>255</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>761</v>
+        <v>256</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>762</v>
+        <v>257</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>763</v>
+        <v>258</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>764</v>
+        <v>259</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>765</v>
+        <v>260</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>766</v>
+        <v>261</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>767</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>768</v>
+        <v>263</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>769</v>
+        <v>264</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>770</v>
+        <v>265</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>771</v>
+        <v>266</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>772</v>
+        <v>267</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2">
-        <v>773</v>
+        <v>268</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>774</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>775</v>
+        <v>270</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>776</v>
+        <v>271</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
-        <v>777</v>
+        <v>272</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>778</v>
+        <v>273</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>779</v>
+        <v>274</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>780</v>
+        <v>275</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>781</v>
+        <v>276</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <v>782</v>
+        <v>277</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>783</v>
+        <v>278</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
       </c>
       <c r="C64" s="2">
-        <v>784</v>
+        <v>279</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>785</v>
+        <v>280</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>786</v>
+        <v>281</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>787</v>
+        <v>282</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>788</v>
+        <v>283</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>789</v>
+        <v>284</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>790</v>
+        <v>285</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3699,132 +3709,115 @@
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3830,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3869,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3925,7 +3918,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3942,205 +3935,205 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E11" s="3">
         <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E12" s="3">
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4152,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4191,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4202,10 +4195,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4216,10 +4209,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4230,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4244,10 +4237,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" t="s">
         <v>230</v>
-      </c>
-      <c r="H5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4258,10 +4251,10 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4272,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4286,10 +4279,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4300,10 +4293,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4314,10 +4307,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4328,10 +4321,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4342,10 +4335,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4356,10 +4349,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4370,10 +4363,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4384,10 +4377,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4398,10 +4391,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -4412,10 +4405,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4426,10 +4419,10 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -4440,10 +4433,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4454,10 +4447,10 @@
         <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4468,10 +4461,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4482,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4499,10 +4492,10 @@
         <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="H23" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4516,10 +4509,10 @@
         <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="H24" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4533,920 +4526,920 @@
         <v>77</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H40" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H41" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H64" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H65" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H66" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H68" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H72" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H73" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H74" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H76" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H77" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H78" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H79" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H80" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H81" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H84" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H85" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H86" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H87" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H89" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H90" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
